--- a/biology/Botanique/Neviusia_cliftonii/Neviusia_cliftonii.xlsx
+++ b/biology/Botanique/Neviusia_cliftonii/Neviusia_cliftonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neviusia cliftonii est une espèce de plantes à fleurs du genre Neviusia et de la famille des Rosaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Neviusia cliftonii est un arbuste à feuilles caduques atteignant une hauteur maximale de 2,5 mètres. Les feuilles disposées en alternance sont ovales ou en forme de cœur et bordées de lobes dentés. Les limbes atteignent 6 cm de long et portent de courts pétioles. L'inflorescence est une grappe en forme de ombelle de 3 à 5 fleurs. La fleur est une boule d'environ 50 longues étamines blanches, d'environ un demi-centimètre de long. Des pétales blancs entourent parfois les étamines, bien que les pétales soient souvent absents. Le fruit est un akène souple de quelques millimètres de long.
-Lorsqu'elle n'est pas en fleur, la plante ressemble à des arbustes communs tels que l'Holodisque discolore et Physocarpus capitatus, une des raisons pour lesquelles elle fut reconnue récemment[1].
+Lorsqu'elle n'est pas en fleur, la plante ressemble à des arbustes communs tels que l'Holodisque discolore et Physocarpus capitatus, une des raisons pour lesquelles elle fut reconnue récemment.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Neviusia cliftonii est endémique du comté de Shasta, comté de l'État de Californie aux États-Unis, où l'on connaît une vingtaine de plantes dans les montagnes autour du lac Shasta. Elle fut découverte à partir d'une plante à Redding[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neviusia cliftonii est endémique du comté de Shasta, comté de l'État de Californie aux États-Unis, où l'on connaît une vingtaine de plantes dans les montagnes autour du lac Shasta. Elle fut découverte à partir d'une plante à Redding.
 </t>
         </is>
       </c>
